--- a/RecipesList.xlsx
+++ b/RecipesList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/eclipse-workspace/ScrappingRecipes/"/>
     </mc:Choice>
@@ -14,10 +14,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recipes" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,8 +35,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+  <si>
+    <t>RecipeID</t>
+  </si>
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>NutrientValue</t>
+  </si>
+  <si>
+    <t>preparationTime</t>
+  </si>
+  <si>
+    <t>cookingTime</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>foodCategory</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -65,8 +99,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,4 +513,46 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="22">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="23">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="25">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="27">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="28">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="29">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/RecipesList.xlsx
+++ b/RecipesList.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>RecipeID</t>
   </si>
@@ -99,8 +99,188 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -524,31 +704,31 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="21">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="22">
+      <c r="B1" t="s" s="82">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="23">
+      <c r="C1" t="s" s="83">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="24">
+      <c r="D1" t="s" s="84">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="25">
+      <c r="E1" t="s" s="85">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="26">
+      <c r="F1" t="s" s="86">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="27">
+      <c r="G1" t="s" s="87">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="28">
+      <c r="H1" t="s" s="88">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="29">
+      <c r="I1" t="s" s="89">
         <v>8</v>
       </c>
     </row>
